--- a/biology/Zoologie/Ixodes_persulcatus/Ixodes_persulcatus.xlsx
+++ b/biology/Zoologie/Ixodes_persulcatus/Ixodes_persulcatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ixodes persulcatus est une espèce de tiques de la famille des Ixodidae, les « tiques dures ». Elle est appelée « tique de la taïga » par les anglophones.
-Cet acarien ectoparasite est dit hématophage, mais il se nourrit de chair (lysée) et de sang prélevés sur de nombreuses espèces de mammifères et d'oiseaux, dont l'homme[1].
+Cet acarien ectoparasite est dit hématophage, mais il se nourrit de chair (lysée) et de sang prélevés sur de nombreuses espèces de mammifères et d'oiseaux, dont l'homme.
 Il est porteur de pathogènes responsables de zoonoses, dont certaines sont considérées comme « émergentes » chez l'homme. Ces maladies dues à des bactéries, virus ou autres parasites sont classées parmi les « maladies vectorielles à tiques ».
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition s'étend de l'Europe de l'Est au Japon, en passant par le nord et centre de l'Asie, de la Chine au Japon[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition s'étend de l'Europe de l'Est au Japon, en passant par le nord et centre de l'Asie, de la Chine au Japon. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dimorphisme sexuel est marqué, le mâle étant bien plus petit que la femelle[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dimorphisme sexuel est marqué, le mâle étant bien plus petit que la femelle. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des animaux à sang chaud, incluant des animaux sauvages et domestiques, ongulés, chien, lapin, lièvre, micromammifères et occasionnellement oiseaux [4]. L'homme est également hôte possible de cette espèce[4], généralement contactée lors de séjour en forêt ou à proximité de forêts.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des animaux à sang chaud, incluant des animaux sauvages et domestiques, ongulés, chien, lapin, lièvre, micromammifères et occasionnellement oiseaux . L'homme est également hôte possible de cette espèce, généralement contactée lors de séjour en forêt ou à proximité de forêts.
 </t>
         </is>
       </c>
@@ -606,14 +624,16 @@
           <t>I. persulcatus et santé publique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette espèce (comme d'autres espèces de tiques dans l'hémisphère nord) parasite des animaux, et parfois l'homme. 
 Elle est susceptible de véhiculer et inoculer plusieurs maladies vectorielles et zoonotiques et émergentes, éventuellement conjointement. Ces maladies sont notamment : 
-la maladie de Lyme[5] ; I. persulcatus en serait par exemple le principal vecteur au Japon[6] ;
-la babesiose ; ici aussi, cet acarien semble être un vecteur relativement spécifique. C'est l'une des deux seules espèces de tiques porteuses de babesia identifiées au Japon, avec I. persulcatus[7] ;
-l’ehrlichiose, en Russie par exemple[8], ou en Chine (dont dans des zones d'endémicité de la maladie de Lyme)[9] ;
-l'« encéphalite à tique » résultant de virus[10] dont « Siberian (TBEV-Sib) »  et « Far Eastern (TBEV-FE) »[11],[2]. Cette tique véhicule un sous-type européen du virus[12], avec un risque "saisonnier" de contracter la maladie[13]. Une étude récente a mis en évidence des foyers d'encéphalite à tiques au nord de la Finlande[14] (dont chez les rongeurs[15] et les bovins[16]) et en Laponie due à  I. persulcatus qui laisse penser à une extension vers le nord de la maladie ou de souches particulière du virus ou au sous-type sibérien[17]. Le réchauffement climatique attendu dans la zone circumpolaire pourrait induire des modifications dans les cycles de développement du virus et/ou des tiques[18],[19].</t>
+la maladie de Lyme ; I. persulcatus en serait par exemple le principal vecteur au Japon ;
+la babesiose ; ici aussi, cet acarien semble être un vecteur relativement spécifique. C'est l'une des deux seules espèces de tiques porteuses de babesia identifiées au Japon, avec I. persulcatus ;
+l’ehrlichiose, en Russie par exemple, ou en Chine (dont dans des zones d'endémicité de la maladie de Lyme) ;
+l'« encéphalite à tique » résultant de virus dont « Siberian (TBEV-Sib) »  et « Far Eastern (TBEV-FE) »,. Cette tique véhicule un sous-type européen du virus, avec un risque "saisonnier" de contracter la maladie. Une étude récente a mis en évidence des foyers d'encéphalite à tiques au nord de la Finlande (dont chez les rongeurs et les bovins) et en Laponie due à  I. persulcatus qui laisse penser à une extension vers le nord de la maladie ou de souches particulière du virus ou au sous-type sibérien. Le réchauffement climatique attendu dans la zone circumpolaire pourrait induire des modifications dans les cycles de développement du virus et/ou des tiques,.</t>
         </is>
       </c>
     </row>
@@ -641,7 +661,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet animal semble inféodé aux bois et forêts de zones froides (taïga) à tempérées et fraiches. 
 La tique reste attachée plusieurs jours à sa proie, le temps de se nourrir ; des oiseaux ou d'autres animaux qui en sont porteurs peuvent donc la véhiculer sur de grandes distances, mais l'espèce ne semble pas pouvoir durablement survivre sous d'autres climats. 
@@ -674,7 +696,9 @@
           <t>Odorat, sens de l'orientation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiques n'ont pas d'yeux mais disposent d'organes senseurs très efficaces, dont l'organe de Haller. Ce dernier leur permet de finement discriminer certaines molécules et odeurs. 
 Chez des tiques de cette espèce, on a étudié les réponses d'individus femelles à plusieurs stimuli olfactifs ; l'osmophérone (5-a-androst-16-ène-3-ol), l'osmophérine (acides butanoïque et 3-méthylbutanoïque), le DEET (N, N-diéthyl-méta-toluamide), l'éthanol (96 %) comparés à l'eau (test-témoin du stimulus). 
@@ -709,9 +733,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après s'être gorgée de nourriture, la femelle se laisse tomber au sol sur la litière forestière (quand elle est encore dans son habitat naturel, sinon, ce peut être dans une étable, une écurie, une niche de chien, etc.). Elle pond ses œufs en paquets sur le sol puis elle meurt. Les œufs écloront au printemps suivant[20].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après s'être gorgée de nourriture, la femelle se laisse tomber au sol sur la litière forestière (quand elle est encore dans son habitat naturel, sinon, ce peut être dans une étable, une écurie, une niche de chien, etc.). Elle pond ses œufs en paquets sur le sol puis elle meurt. Les œufs écloront au printemps suivant.
 </t>
         </is>
       </c>
@@ -740,7 +766,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Schulze, 1930 : Über einige Verwandte von Ixodes ricinus L. aus Ostasien. Zoologischer Anzeiger, vol. 90, p. 294-303.</t>
         </is>
